--- a/Process Results/Unified_IBNP_GBR.xlsx
+++ b/Process Results/Unified_IBNP_GBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{122DF452-E244-41D6-9FDC-AC454D167B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B883D2-6EEF-4DC5-83A9-FC78D396F5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_GBR.xlsx
+++ b/Process Results/Unified_IBNP_GBR.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03207962232901909</v>
+        <v>0.07232431063360788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04737995568479706</v>
+        <v>0.04889723548677362</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.03994403581883525</v>
+        <v>0.06002047923273299</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.03825671170993811</v>
+        <v>0.05834703419733878</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2733752369729572</v>
+        <v>0.4457769623235034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3777547731603316</v>
+        <v>0.2018296393767698</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3413884263900964</v>
+        <v>0.2744946831958319</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3171987130779975</v>
+        <v>0.2778569684496984</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4058378554175353</v>
+        <v>0.7300333448011289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5173622261676223</v>
+        <v>0.4023591944957635</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5444996303606896</v>
+        <v>0.4379501214357777</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4548638600234832</v>
+        <v>0.5187876436409797</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8161492050002197</v>
+        <v>0.780528417106011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7095242310229762</v>
+        <v>0.4487743084819731</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6652234734708035</v>
+        <v>0.6133604910168543</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7591108600372722</v>
+        <v>0.5698858277073082</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8217965650939107</v>
+        <v>0.8996244350616426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8433480739487015</v>
+        <v>0.7695967824426562</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7761315421036559</v>
+        <v>0.7970750570705301</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8324328518969845</v>
+        <v>0.8295462139708266</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8307303219072888</v>
+        <v>0.9055238973873712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9063463941718425</v>
+        <v>0.8376932692296157</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8249614364652911</v>
+        <v>0.852132127351969</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8668925497883262</v>
+        <v>0.8702888985886588</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.831438564930728</v>
+        <v>0.9515971411816874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9094570296149057</v>
+        <v>0.9017485768068373</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8932324536055136</v>
+        <v>0.8868777255869149</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8686995934027091</v>
+        <v>0.9260024823489026</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8850189586451348</v>
+        <v>0.9567986751735366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9467826360196059</v>
+        <v>0.9547875685979591</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9378280937967358</v>
+        <v>0.9452972263436707</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9148595405025018</v>
+        <v>0.9557920639816979</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8897757705063009</v>
+        <v>0.9915381526256722</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9501864958657884</v>
+        <v>0.9949219640572949</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9657764549438187</v>
+        <v>0.9662049128209012</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9189894129195049</v>
+        <v>0.9932271762851793</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8937458922464444</v>
+        <v>0.9915381526256722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9672060155732944</v>
+        <v>0.9951893779089933</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9727477582509908</v>
+        <v>0.9669199076862636</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9290260535399243</v>
+        <v>0.9933604101404055</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.996997461264341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9987105873507492</v>
+        <v>0.9976615145409106</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9881680856044023</v>
+        <v>0.9984734221173572</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9992201435355127</v>
+        <v>0.9973293773657472</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9978976249340991</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9989361735674797</v>
+        <v>0.9980431945419473</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9909224668013548</v>
+        <v>0.9986557414422486</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9993330390267313</v>
+        <v>0.9979704044296216</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9979256196763457</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9989361735674797</v>
+        <v>0.9987715876434826</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9978286572897322</v>
+        <v>0.9993096828315009</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9993330390267313</v>
+        <v>0.9983484244485149</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9989113456976801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9992309633394756</v>
+        <v>0.9994316427427241</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9980735232686445</v>
+        <v>0.9996299109328984</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9994805292986463</v>
+        <v>0.999171426486831</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9992629416119764</v>
+        <v>0.9999648873876334</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9981796034845443</v>
+        <v>0.9999668927633025</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9994965261668153</v>
+        <v>0.9999699251965773</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9992629416119764</v>
+        <v>0.9999648873876334</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.999359730930039</v>
+        <v>0.9999668927633025</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9994965261668153</v>
+        <v>0.9999699251965773</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9997329391537796</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9997329391537796</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9998145627769497</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9998145627769497</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.999772389585225</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4487,20 +4487,20 @@
         <v/>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="H27" s="4">
         <f>+I27/I28</f>
         <v/>
       </c>
       <c r="I27" s="5" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="J27" s="5">
         <f>I27</f>
@@ -4833,73 +4833,73 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>4.523338817707186</v>
+        <v>10.7442808632322</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.302335372559802</v>
+        <v>1.202134173917293</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.001135881314148</v>
+        <v>1.031737493275955</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.034958191417735</v>
+        <v>1.016545738627791</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>0.9990798981626617</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.019813685708823</v>
+        <v>1.002947882266118</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.182498622500581</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.002688311745509</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" s="4" t="n">
+        <v>1.000072349976568</v>
+      </c>
+      <c r="W38" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="L38" s="4" t="n">
-        <v>1.00141785780485</v>
-      </c>
-      <c r="M38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W38" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="X38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4908,40 +4908,40 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>2.509820750580208</v>
+        <v>10.60096703945669</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.257934787356328</v>
+        <v>1.54924063061432</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.023052128976746</v>
+        <v>1.026463023122277</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.532073091384097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.003305096559393</v>
+        <v>1.004039537106268</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>1.025955094034744</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.000481448870292</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.000370870965433</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>1.007688906931813</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.003084782278832</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.034196772790205</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.080707026750022</v>
+        <v>1.006024039206877</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>1</v>
@@ -4983,25 +4983,25 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>19.94766816581932</v>
+        <v>7.136550461457983</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.241262395861287</v>
+        <v>1.257807121110183</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.366146656492197</v>
+        <v>1.017085318364688</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.0387384321232</v>
+        <v>1.023894982401572</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v>1.943602267980662</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.007336312101437</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.010413983466075</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
@@ -5010,34 +5010,34 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.382521246895871</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.000115505562379</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.001252646412019</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.015651800004778</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1.003978315492515</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1.000639898473012</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1.001278978529616</v>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
         <v>1</v>
@@ -5058,19 +5058,19 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>5.187698115158879</v>
+        <v>26.0697822675559</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.160798745642793</v>
+        <v>1.153155949324229</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.069356140622048</v>
+        <v>1.291732119699528</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.499796034394704</v>
+        <v>2.42891509666274</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.084717739603835</v>
+        <v>1.006661114005289</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
@@ -5079,25 +5079,25 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.003714332535677</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>1.005134762996239</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.000082125991106</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.002026427645567</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.000932892127539</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
@@ -5133,40 +5133,40 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>3.287769094124914</v>
+        <v>8.922680532021076</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>3.991041317067592</v>
+        <v>6.783487427093793</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.008400732268069</v>
+        <v>1.007828394295201</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.015535883599755</v>
+        <v>1.004096695094164</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.000871409930989</v>
+        <v>1.012938760877359</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.007176026167463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.000922795339119</v>
+        <v>1.011223848433151</v>
       </c>
       <c r="J42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>1.055496359438821</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.000393623358193</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.004391232696297</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1</v>
+        <v>1.000030846022265</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5208,58 +5208,58 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>11.27045108299662</v>
+        <v>5.015630569150925</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.179612106964443</v>
+        <v>1.478408119898848</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.759116341406301</v>
+        <v>1.017827079904147</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.073215529888919</v>
+        <v>1.010226013559431</v>
       </c>
       <c r="F43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>1.00329169403094</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>1.401991947205671</v>
+      </c>
+      <c r="I43" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="G43" s="4" t="n">
-        <v>1.187720772871641</v>
-      </c>
-      <c r="H43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.002270825996292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.000283210128614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,37 +5283,37 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>9.018035897324058</v>
+        <v>8.348055463964041</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.209744041170098</v>
+        <v>1.146877598536504</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.044061379274499</v>
+        <v>1.063439152863725</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.040668230338423</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.152028922844816</v>
+        <v>1.002594201737536</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.001089737595947</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.297282578316524</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.04810430303575</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.001607425282914</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.000301971315657</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000856401764387</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>1</v>
@@ -5358,52 +5358,52 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>4.920456759611539</v>
+        <v>5.510312584041871</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.186936038023503</v>
+        <v>1.072023892207251</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.154364690554204</v>
+        <v>1.295779161085284</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.060100728157186</v>
+        <v>1.005455309568886</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>1.030211679322626</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.373441006479903</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.001393671436213</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="n">
+        <v>1.001325455396991</v>
+      </c>
+      <c r="L45" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="J45" s="4" t="n">
+      <c r="M45" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="K45" s="4" t="n">
-        <v>1.001844514135363</v>
-      </c>
-      <c r="L45" s="4" t="n">
-        <v>1.001470915956288</v>
-      </c>
-      <c r="M45" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5433,46 +5433,46 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>7.189556608072466</v>
+        <v>11.21717803448361</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.544914584455706</v>
+        <v>1.193636057530425</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.256603255194088</v>
+        <v>1.021796273806187</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.171473755702889</v>
+        <v>1.016139672796504</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.005307810800403</v>
+        <v>1.282577745002391</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.293178532395713</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>1.004423707551115</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>1.006950074499321</v>
+      </c>
+      <c r="N46" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="I46" s="4" t="n">
-        <v>1.195841132711722</v>
-      </c>
-      <c r="J46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>1.006800102817555</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>1</v>
@@ -5508,40 +5508,40 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>5.411401913497272</v>
+        <v>22.62367013283645</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.402819888073877</v>
+        <v>1.464644384813624</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.036082309799043</v>
+        <v>2.871306193341829</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.402706837781373</v>
+        <v>1.002369089634664</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.218227296284832</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.037262885333739</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.110990781874565</v>
+        <v>1.001861169839469</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.001809471086273</v>
+        <v>1.004300481350688</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.049558306813057</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.001322171699639</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>1.000044474358496</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5583,31 +5583,31 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>176.5277583798883</v>
+        <v>4.614351381509918</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.129604777130221</v>
+        <v>1.751690521350107</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.047496018651708</v>
+        <v>1.010021171489061</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.067240530535726</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.001659486522448</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.121655642601367</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.001863908212628</v>
+        <v>1.167366061046215</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.002080298115765</v>
+        <v>1.142248742412314</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>1.000370242876267</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1</v>
+        <v>1.003954932730968</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,22 +5658,22 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>10.7442808632322</v>
+        <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.202134173917293</v>
+        <v>1.03903778828732</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.031737493275955</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.016545738627791</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.002947882266118</v>
+        <v>1.03316911334135</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>1.003270141586939</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>10.60096703945669</v>
+        <v>6.243458042697104</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.54924063061432</v>
+        <v>1.034250350398473</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.026463023122277</v>
+        <v>1.233431141872137</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.004039537106268</v>
+        <v>1.195031512170162</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.025955094034744</v>
+        <v>1.253992040790946</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>1.115607837247967</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.001264232136133</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.007688906931813</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1</v>
+        <v>1.002066131425745</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>1.001970738894184</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>7.136550461457983</v>
+        <v>1.696649630891539</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.257807121110183</v>
+        <v>3.398286364549167</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.017085318364688</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.023894982401572</v>
+        <v>4.781314633521776</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.943602267980662</v>
+        <v>1.335731029567467</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>1.017944273438898</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.40461574820327</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.181105946050886</v>
       </c>
       <c r="J51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.382521246895871</v>
+        <v>1.013280235524881</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>26.0697822675559</v>
+        <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.153155949324229</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.291732119699528</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>2.42891509666274</v>
+        <v>1.345308939715451</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.006661114005289</v>
+        <v>1.240527731821204</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1</v>
+        <v>1.024442140229712</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.000984677953061</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.005134762996239</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>8.922680532021076</v>
+        <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>6.783487427093793</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.007828394295201</v>
+        <v>1.470192103509248</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.004096695094164</v>
+        <v>3.868838181750578</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.012938760877359</v>
+        <v>1.065205683411407</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.006155979472203</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00300604485408</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.011223848433151</v>
+        <v>1.001059415646823</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>5.015630569150925</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.478408119898848</v>
+        <v>4.044300451734854</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.017827079904147</v>
+        <v>1.02529513465983</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.010226013559431</v>
+        <v>1.162310476008356</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v>1.00686258135761</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.00329169403094</v>
+        <v>1.148342633993045</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.401991947205671</v>
+        <v>1.013405006845156</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>8.348055463964041</v>
+        <v>3.176021717180077</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.146877598536504</v>
+        <v>1.644249060576527</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.063439152863725</v>
+        <v>1.04524750623639</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>1.51821920051431</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.002594201737536</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.001089737595947</v>
+        <v>1.072421706937567</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>5.510312584041871</v>
+        <v>2.470929104839492</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.072023892207251</v>
+        <v>1.156597423241848</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.295779161085284</v>
+        <v>1.077912106558073</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.005455309568886</v>
+        <v>1.053682110292121</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.030211679322626</v>
+        <v>1.017449243318344</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>11.21717803448361</v>
+        <v>4.133375584597228</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.193636057530425</v>
+        <v>1.956348639860417</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.021796273806187</v>
+        <v>1.001945872318345</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.016139672796504</v>
+        <v>1.023864819520195</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>22.62367013283644</v>
+        <v>10.3813638925418</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.464644384813624</v>
+        <v>1.041074013753167</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>2.871306193341829</v>
+        <v>1.276387434327457</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4.614351381509918</v>
+        <v>2.539378628728449</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.751690521350107</v>
+        <v>1.703533696360421</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v/>
+        <v>31.57434640522876</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.05808812531541559</v>
+        <v>0.04902363627426313</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.03994403581883525</v>
+        <v>0.06002047923273299</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.04737995568479706</v>
+        <v>0.04889723548677362</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.03207962232901909</v>
+        <v>0.07232431063360788</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01953048463429836</v>
+        <v>0.02484242061936093</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.02631236100506591</v>
+        <v>0.02428491038894539</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.03053621775798311</v>
+        <v>0.02151514074879668</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.02196466685673995</v>
+        <v>0.02747788145065208</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.03825671170993811</v>
+        <v>0.05834703419733878</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.585086458451648</v>
+        <v>6.992171166725654</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>8.546668342138773</v>
+        <v>4.5733504081409</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>7.972881521321111</v>
+        <v>4.127628839699198</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>8.521772300469483</v>
+        <v>6.163583979137969</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>16.84533704156779</v>
+        <v>9.632578017706059</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>10.98213266633733</v>
+        <v>7.776940375838056</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>10.46271351936718</v>
+        <v>9.0459025555193</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>13.61901075717318</v>
+        <v>14.831696308833</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>8.247326910895296</v>
+        <v>5.145606409418583</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3825153274113856</v>
+        <v>0.3427816560449485</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.3413884263900964</v>
+        <v>0.2744946831958319</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.3777547731603316</v>
+        <v>0.2018296393767698</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.2733752369729572</v>
+        <v>0.4457769623235034</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3289975962499168</v>
+        <v>0.2392965547646638</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.288965839322195</v>
+        <v>0.1888623001273984</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3194916983667899</v>
+        <v>0.1946238666818973</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.2991370341996667</v>
+        <v>0.4075435928861873</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.3171987130779975</v>
+        <v>0.2778569684496984</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.567227307086339</v>
+        <v>1.63828200435673</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.594956326195144</v>
+        <v>1.595477611212354</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.369571645221904</v>
+        <v>1.993558506759509</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.484545052109755</v>
+        <v>1.63766503543837</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.666368633213738</v>
+        <v>1.853539183257939</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.7652258877939</v>
+        <v>1.87693683101123</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.351213429056126</v>
+        <v>1.924350547587872</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.469990321231386</v>
+        <v>1.566985449991335</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.427058348665829</v>
+        <v>1.815611771098939</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5994884664981953</v>
+        <v>0.5615730185220374</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5444996303606896</v>
+        <v>0.4379501214357777</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.5173622261676223</v>
+        <v>0.4023591944957635</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.4058378554175353</v>
+        <v>0.7300333448011289</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.5482312747935789</v>
+        <v>0.4435455406749336</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.510089980259631</v>
+        <v>0.354482607098611</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.4317014733051558</v>
+        <v>0.3745245444229781</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.4397285449953721</v>
+        <v>0.6386148802898476</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.4548638600234832</v>
+        <v>0.5187876436409797</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.182078486104674</v>
+        <v>1.209873660031406</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.221715197547781</v>
+        <v>1.40052590693664</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.371426430334507</v>
+        <v>1.11535740855724</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>2.011022860744586</v>
+        <v>1.069168172473872</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.210038559252947</v>
+        <v>1.189271334036468</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.227381044850798</v>
+        <v>1.273794424028397</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.379662709216062</v>
+        <v>1.149496692934891</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.7296272094111</v>
+        <v>1.118748471067958</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.691224645539547</v>
+        <v>1.092262790515556</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7086424189153991</v>
+        <v>0.6794324032941421</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.6652234734708035</v>
+        <v>0.6133604910168543</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7095242310229762</v>
+        <v>0.4487743084819731</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.8161492050002197</v>
+        <v>0.780528417106011</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.6633809818886285</v>
+        <v>0.5274959968644047</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.6260747729389886</v>
+        <v>0.4515379683372598</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.5956024242327566</v>
+        <v>0.4305147252371599</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7605664561787487</v>
+        <v>0.714449420925514</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7591108600372722</v>
+        <v>0.5698858277073082</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.152384315209969</v>
+        <v>1.229104101909001</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.166723023248397</v>
+        <v>1.29952135611002</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.188610673285648</v>
+        <v>1.714886008171678</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.006919519199543</v>
+        <v>1.152583833394827</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.172089037701755</v>
+        <v>1.463059047983427</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.178891219394256</v>
+        <v>1.647670593646163</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.244138797946954</v>
+        <v>1.662037287966836</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.00719832745513</v>
+        <v>1.198588710108875</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.097765096242596</v>
+        <v>1.433734920783253</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8166284086505579</v>
+        <v>0.8350931538587204</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7761315421036559</v>
+        <v>0.7970750570705301</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8433480739487015</v>
+        <v>0.7695967824426562</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8217965650939107</v>
+        <v>0.8996244350616426</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7775415766914877</v>
+        <v>0.7717577909875047</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7380740525020265</v>
+        <v>0.7439858323440353</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.7410120841392336</v>
+        <v>0.7155315263629567</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.7660412625817113</v>
+        <v>0.8563310098651448</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8324328518969845</v>
+        <v>0.8295462139708266</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.047813675043157</v>
+        <v>1.065654138619234</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.062914456780464</v>
+        <v>1.069073884313717</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.07470025979685</v>
+        <v>1.088483330934447</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.010871007732135</v>
+        <v>1.006557694628786</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.077118169565217</v>
+        <v>1.112812267772543</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.102103512886452</v>
+        <v>1.097799767164268</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.166001337320578</v>
+        <v>1.110962711579339</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.010935293686721</v>
+        <v>1.008103941558651</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.042785633764493</v>
+        <v>1.047520512781617</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8556744140127862</v>
+        <v>0.8899204755421343</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8249614364652911</v>
+        <v>0.852132127351969</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9063463941718425</v>
+        <v>0.8376932692296157</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8307303219072888</v>
+        <v>0.9055238973873712</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8375041598467878</v>
+        <v>0.8588215375599336</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8134340060328229</v>
+        <v>0.8167474735207958</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8640210810770553</v>
+        <v>0.7949288447486933</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.7744181487641886</v>
+        <v>0.8632706663239528</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8668925497883262</v>
+        <v>0.8702888985886588</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.061728915934178</v>
+        <v>1.026610025462951</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.08275661639742</v>
+        <v>1.040774895253532</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.003432060262021</v>
+        <v>1.076466303276055</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.000852554679614</v>
+        <v>1.050880207498938</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.059649624745576</v>
+        <v>1.032764016451748</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.071568539561539</v>
+        <v>1.046463135483306</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.005056087610272</v>
+        <v>1.087216462477062</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.001460477208963</v>
+        <v>1.075640106800938</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.002142307470817</v>
+        <v>1.063673255387496</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9084942679824081</v>
+        <v>0.9136012820563116</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8932324536055136</v>
+        <v>0.8868777255869149</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9094570296149057</v>
+        <v>0.9017485768068373</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.831438564930728</v>
+        <v>0.9515971411816874</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8874609687045077</v>
+        <v>0.8869599805456633</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8716502898742844</v>
+        <v>0.8546961220386402</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.8683896473601028</v>
+        <v>0.864259726508652</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.7755491688206656</v>
+        <v>0.9285685517228139</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8686995934027091</v>
+        <v>0.9260024823489026</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.041046376945026</v>
+        <v>1.043364980654967</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.049926130663091</v>
+        <v>1.065870975300564</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.041041638240462</v>
+        <v>1.058817937898984</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.064442997924773</v>
+        <v>1.005466109309019</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.059652527532354</v>
+        <v>1.065225793717346</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.067793573920467</v>
+        <v>1.092403207766241</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.066998657867612</v>
+        <v>1.089603219183922</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.133997315735224</v>
+        <v>1.005798576550766</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.052742318082617</v>
+        <v>1.032142023604002</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9457846661584094</v>
+        <v>0.9532195839790364</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9378280937967358</v>
+        <v>0.9452972263436707</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9467826360196059</v>
+        <v>0.9547875685979591</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.8850189586451348</v>
+        <v>0.9567986751735366</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9404002585740426</v>
+        <v>0.944812649272276</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9307425782336731</v>
+        <v>0.9336727853803771</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9265705882393583</v>
+        <v>0.9417001802148435</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.8794706756633188</v>
+        <v>0.9339529275526122</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9148595405025018</v>
+        <v>0.9557920639816979</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.023784890691384</v>
+        <v>1.01707547603677</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.029801155810907</v>
+        <v>1.022117579417957</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.003595186177572</v>
+        <v>1.042034895278612</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.005374813516366</v>
+        <v>1.036308032560596</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.016504190763931</v>
+        <v>1.021325166626875</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.021665154060148</v>
+        <v>1.028433555502499</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.002217357758153</v>
+        <v>1.054279722707693</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.00374128281105</v>
+        <v>1.06072178723257</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.004484999846969</v>
+        <v>1.039171463919604</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9682800510605747</v>
+        <v>0.96949626214305</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9657764549438187</v>
+        <v>0.9662049128209012</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9501864958657884</v>
+        <v>0.9949219640572949</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.8897757705063009</v>
+        <v>0.9915381526256722</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9559208038359982</v>
+        <v>0.964960936449186</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9509072595814452</v>
+        <v>0.9602204223446633</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9286251267216669</v>
+        <v>0.9928154048706894</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.8827610241850007</v>
+        <v>0.9906642185046974</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9189894129195049</v>
+        <v>0.9932271762851793</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.006206263103278</v>
+        <v>1.000989817072765</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.007218340508806</v>
+        <v>1.000740003342847</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.017911767617786</v>
+        <v>1.000268778719698</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.004461935098417</v>
+        <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.004445180917969</v>
+        <v>1.001097603626084</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.005332450168668</v>
+        <v>1.000731262288287</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.010396996123518</v>
+        <v>1.000606730743868</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.004274556642684</v>
+        <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.011186851358102</v>
+        <v>1.000134389359849</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9742894518151126</v>
+        <v>0.9704558860953012</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9727477582509908</v>
+        <v>0.9669199076862636</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9672060155732944</v>
+        <v>0.9951893779089933</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.8937458922464444</v>
+        <v>0.9915381526256722</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9601700447522991</v>
+        <v>0.9660200810720619</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9559779251581884</v>
+        <v>0.9609225953279672</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9382800385643933</v>
+        <v>0.9934177764998099</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.8865344361848331</v>
+        <v>0.9906642185046974</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9290260535399243</v>
+        <v>0.9933604101404055</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.014305418545549</v>
+        <v>1.028882994071647</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.015852339131716</v>
+        <v>1.032633017668028</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.032572762441703</v>
+        <v>1.002484086633954</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.118584408190485</v>
+        <v>1.005505898713239</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.027796915165462</v>
+        <v>1.032793795445244</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.032172669169803</v>
+        <v>1.038259428019452</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.063973903099251</v>
+        <v>1.003295012416957</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.127507082298624</v>
+        <v>1.005115455650209</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.075578585316094</v>
+        <v>1.003994992673596</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.988227070207841</v>
+        <v>0.998485557700187</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9881680856044023</v>
+        <v>0.9984734221173572</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9987105873507492</v>
+        <v>0.9976615145409106</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.996997461264341</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9868598100306963</v>
+        <v>0.9976995460067376</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9867342866779375</v>
+        <v>0.9976869441961824</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9983054748314737</v>
+        <v>0.9966911004086023</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9957319173787069</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9992201435355127</v>
+        <v>0.9973293773657472</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.002727507346006</v>
+        <v>1.000170441866434</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.002787361013858</v>
+        <v>1.000182598075074</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000225877465992</v>
+        <v>1.000382574646284</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.000902874585675</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.002948890128763</v>
+        <v>1.000151595299553</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.003076476155756</v>
+        <v>1.000164228241182</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000245152659381</v>
+        <v>1.000328456482364</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.000656912964728</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000112938732996</v>
+        <v>1.00064272461598</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9909224668013548</v>
+        <v>0.9986557414422486</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9909224668013548</v>
+        <v>0.9986557414422486</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9989361735674797</v>
+        <v>0.9980431945419473</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9978976249340991</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9897699511829691</v>
+        <v>0.997850792568278</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9897699511829691</v>
+        <v>0.997850792568278</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9985502120735036</v>
+        <v>0.9970184700614458</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9963860265846263</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9993330390267313</v>
+        <v>0.9979704044296216</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.006969455956196</v>
+        <v>1.000654821638844</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.006969455956196</v>
+        <v>1.000654821638844</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1</v>
+        <v>1.000729821219681</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.000028053721692</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.007270016054522</v>
+        <v>1.001084882338724</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.007270016054522</v>
+        <v>1.001084882338724</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1</v>
+        <v>1.001165758142969</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.000014824786166</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1</v>
+        <v>1.000378937470686</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9978286572897322</v>
+        <v>0.9993096828315009</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9978286572897322</v>
+        <v>0.9993096828315009</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9989361735674797</v>
+        <v>0.9987715876434826</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9979256196763457</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9969655946183527</v>
+        <v>0.9989333432698173</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9969655946183527</v>
+        <v>0.9989333432698173</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9985502120735036</v>
+        <v>0.998180752461611</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9964007977944086</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9993330390267313</v>
+        <v>0.9983484244485149</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.00024539882386</v>
+        <v>1.00032044931306</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.00024539882386</v>
+        <v>1.00032044931306</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000295103711124</v>
+        <v>1.000660866916327</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1</v>
+        <v>1.000987775042447</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000320315673483</v>
+        <v>1.000359539339179</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000320315673483</v>
+        <v>1.000359539339179</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000378470999382</v>
+        <v>1.000659155455161</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1</v>
+        <v>1.001318310910323</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000147551855562</v>
+        <v>1.000824320979387</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9980735232686445</v>
+        <v>0.9996299109328984</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9980735232686445</v>
+        <v>0.9996299109328984</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9992309633394756</v>
+        <v>0.9994316427427241</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9989113456976801</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.997284938324232</v>
+        <v>0.9992924991039402</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.997284938324232</v>
+        <v>0.9992924991039402</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9989281343702001</v>
+        <v>0.9988387087498332</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9977143638371951</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9994805292986463</v>
+        <v>0.999171426486831</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000106284971424</v>
+        <v>1.000337106589867</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000106284971424</v>
+        <v>1.000337106589867</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000032002883892</v>
+        <v>1.000533547890725</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1</v>
+        <v>1.001064776532155</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000121610225615</v>
+        <v>1.000680010281755</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000121610225615</v>
+        <v>1.000680010281755</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000047201688102</v>
+        <v>1.001133350469593</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1</v>
+        <v>1.002266700939185</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000016001441946</v>
+        <v>1.00079916221144</v>
       </c>
     </row>
     <row r="16">
@@ -7599,41 +7599,41 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9981796034845443</v>
+        <v>0.9999668927633025</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9981796034845443</v>
+        <v>0.9999668927633025</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9992629416119764</v>
+        <v>0.9999648873876334</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9974062183705843</v>
+        <v>0.9999720282778121</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9974062183705843</v>
+        <v>0.9999720282778121</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9989752854644353</v>
+        <v>0.999970743069442</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9994965261668153</v>
+        <v>0.9999699251965773</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.001182279663274</v>
+        <v>1</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.001182279663274</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1</v>
@@ -7642,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.00173908888942</v>
+        <v>1</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.00173908888942</v>
+        <v>1</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>1</v>
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.999359730930039</v>
+        <v>0.9999668927633025</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.999359730930039</v>
+        <v>0.9999668927633025</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9992629416119764</v>
+        <v>0.9999648873876334</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9991407964431908</v>
+        <v>0.9999720282778121</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9991407964431908</v>
+        <v>0.9999720282778121</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9989752854644353</v>
+        <v>0.999970743069442</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9994965261668153</v>
+        <v>0.9999699251965773</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000376168290068</v>
+        <v>1.000008070560174</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000376168290068</v>
+        <v>1.000008070560174</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.000473065436057</v>
+        <v>1.000010076022444</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000497289436564</v>
+        <v>1.000003855752783</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000497289436564</v>
+        <v>1.000003855752783</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000663052582086</v>
+        <v>1.000005141003711</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000236532718028</v>
+        <v>1.000005038011222</v>
       </c>
     </row>
     <row r="18">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9996376586069025</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9996376586069025</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9996376586069025</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9997329391537796</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9997356583711858</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9996376586069025</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9996376586069025</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9996376586069025</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9997329391537796</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.000078925268998</v>
+        <v>1</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.000078925268998</v>
+        <v>1</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.000078925268998</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.000106649745502</v>
+        <v>1</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.000106649745502</v>
+        <v>1</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.000106649745502</v>
+        <v>1</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.000039462634499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9998145627769497</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9998145627769497</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9998145627769497</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9997302199511658</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.999744269708787</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.999744269708787</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.999744269708787</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9995738555000164</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.999772389585225</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.000185471616392</v>
+        <v>1</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.000185471616392</v>
+        <v>1</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.000185471616392</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="22" t="n">
-        <v>1.000269852849749</v>
+        <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1.000255795705923</v>
+        <v>1</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1.000255795705923</v>
+        <v>1</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1.000255795705923</v>
+        <v>1</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1.000426326176539</v>
+        <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.00022766223307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7919,31 +7919,31 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
@@ -7983,62 +7983,62 @@
         <v/>
       </c>
       <c r="B22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="C22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="D22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="E22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="F22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="H22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="I22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999758839227431</v>
       </c>
       <c r="J22" s="34" t="n">
-        <v>1</v>
+        <v>0.9999749630562823</v>
       </c>
       <c r="M22">
         <f>+M21+1</f>
         <v/>
       </c>
       <c r="N22" s="22" t="n">
-        <v>1</v>
+        <v>1.000025037570582</v>
       </c>
       <c r="O22" s="22" t="n">
-        <v>1</v>
+        <v>1.000025037570582</v>
       </c>
       <c r="P22" s="22" t="n">
-        <v>1</v>
+        <v>1.000025037570582</v>
       </c>
       <c r="Q22" s="22" t="n">
-        <v>1</v>
+        <v>1.000025037570582</v>
       </c>
       <c r="R22" s="22" t="n">
-        <v>1</v>
+        <v>1.000024116658856</v>
       </c>
       <c r="S22" s="22" t="n">
-        <v>1</v>
+        <v>1.000024116658856</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>1</v>
+        <v>1.000024116658856</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1</v>
+        <v>1.000024116658856</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1</v>
+        <v>1.000025037570582</v>
       </c>
     </row>
     <row r="23">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>11399.51</v>
+        <v>12163.98</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>29048.8925</v>
+        <v>23784.6325</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1543.78</v>
+        <v>895.24</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>6983.04</v>
+        <v>9618.709999999999</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>9094.26</v>
+        <v>11562.98</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>9104.59</v>
+        <v>11929.96</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>9422.870000000001</v>
+        <v>12127.35</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>9414.200000000001</v>
+        <v>12127.35</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>9600.730000000001</v>
+        <v>12163.1</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>11352.85</v>
+        <v>12163.1</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>11352.85</v>
+        <v>12163.1</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>11383.37</v>
+        <v>12163.1</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>11383.37</v>
+        <v>12163.1</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.1</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.98</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.98</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>11399.51</v>
+        <v>12163.98</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>28220.10666666666</v>
+        <v>22692.45583333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>3740.04</v>
+        <v>541.86</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>9386.83</v>
+        <v>5744.24</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>11808.02</v>
+        <v>8899.209999999999</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>12080.22</v>
+        <v>9134.709999999999</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>18507.78</v>
+        <v>9134.709999999999</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>18568.95</v>
+        <v>9171.609999999999</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>18568.95</v>
+        <v>9409.659999999998</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>18577.89</v>
+        <v>9409.659999999998</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>18584.78</v>
+        <v>9409.659999999998</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>18584.78</v>
+        <v>9482.009999999998</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>18642.11</v>
+        <v>9482.009999999998</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>19279.61</v>
+        <v>9482.009999999998</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>20835.61</v>
+        <v>9539.129999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>14968.55</v>
+        <v>13444.95</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>27665.89083333333</v>
+        <v>21360.85083333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>409.12</v>
+        <v>535.26</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>8160.99</v>
+        <v>3819.91</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>10129.93</v>
+        <v>4804.71</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>13838.97</v>
+        <v>4886.8</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>14375.07</v>
+        <v>5003.570000000001</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>14375.07</v>
+        <v>9724.950000000001</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>14480.53</v>
+        <v>9724.950000000001</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>14631.33</v>
+        <v>9724.950000000001</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>14631.33</v>
+        <v>9724.950000000001</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>14631.33</v>
+        <v>9724.950000000001</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>14631.33</v>
+        <v>13444.95</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>14631.33</v>
+        <v>13444.95</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>14633.02</v>
+        <v>13444.95</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>14651.35</v>
+        <v>13444.95</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>14651.35</v>
+        <v>13444.95</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>14880.67</v>
+        <v>13444.95</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>14939.87</v>
+        <v>13444.95</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>14939.87</v>
+        <v>13444.95</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>14949.43</v>
+        <v>13444.95</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>14968.55</v>
+        <v>13444.95</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>14968.55</v>
+        <v>13444.95</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>14968.55</v>
+        <v>13444.95</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>27560.12916666667</v>
+        <v>21157.32416666666</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1933.85</v>
+        <v>203.92</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>10032.23</v>
+        <v>5316.150000000001</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>11645.4</v>
+        <v>6130.35</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>12453.08</v>
+        <v>7918.77</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>18677.08</v>
+        <v>19234.02</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>20259.36</v>
+        <v>19362.14</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>20259.36</v>
+        <v>19362.14</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>20259.36</v>
+        <v>19362.14</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>20334.61</v>
+        <v>19362.14</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>20334.61</v>
+        <v>19461.56</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>20336.28</v>
+        <v>19461.56</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>20336.28</v>
+        <v>19461.56</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>20377.49</v>
+        <v>19461.56</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>20377.49</v>
+        <v>19461.56</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>20396.5</v>
+        <v>19461.56</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>35507.5</v>
+        <v>28529.68</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>26352.0725</v>
+        <v>20162.48666666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>2606.43</v>
+        <v>430.81</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>8569.34</v>
+        <v>3843.98</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>34200.59</v>
+        <v>26075.59</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>34487.89999999999</v>
+        <v>26279.72</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>35023.7</v>
+        <v>26387.38</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>35054.21999999999</v>
+        <v>26728.8</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>35054.21999999999</v>
+        <v>26728.8</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>35305.77</v>
+        <v>26728.8</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>35338.35</v>
+        <v>27028.8</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>35338.35</v>
+        <v>27028.8</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>35338.35</v>
+        <v>28528.8</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>35352.26</v>
+        <v>28528.8</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28528.8</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28528.8</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28528.8</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28528.8</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28529.68</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28529.68</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28529.68</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>35507.5</v>
+        <v>28529.68</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>18048.25</v>
+        <v>12336.73</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>26046.03166666667</v>
+        <v>19338.82416666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>603.88</v>
+        <v>1150.31</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>6806</v>
+        <v>5769.530000000001</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>8028.440000000001</v>
+        <v>8529.720000000001</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>14122.96</v>
+        <v>8681.780000000001</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>15156.98</v>
+        <v>8770.560000000001</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>15156.98</v>
+        <v>8770.560000000001</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>18002.26</v>
+        <v>8799.430000000002</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>18002.26</v>
+        <v>12336.73</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>18002.26</v>
+        <v>12336.73</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>18002.26</v>
+        <v>12336.73</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>18002.26</v>
+        <v>12336.73</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>18002.26</v>
+        <v>12336.73</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>18002.26</v>
+        <v>12336.73</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>18043.14</v>
+        <v>12336.73</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>18048.25</v>
+        <v>12336.73</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>18048.25</v>
+        <v>12336.73</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>18048.25</v>
+        <v>12336.73</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>18048.25</v>
+        <v>12336.73</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>18048.25</v>
+        <v>12336.73</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>25674.77333333333</v>
+        <v>19304.61333333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>917.0600000000001</v>
+        <v>576.23</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>8270.08</v>
+        <v>4810.4</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>10004.68</v>
+        <v>5516.94</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>10445.5</v>
+        <v>5866.929999999999</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>10870.3</v>
+        <v>5866.929999999999</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>12522.9</v>
+        <v>5882.15</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>12522.9</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>16245.74</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>17027.23</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>17054.6</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>17059.75</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>17074.36</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>19233.97</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>25311.99833333333</v>
+        <v>18995.06666666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1950.26</v>
+        <v>966.78</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>9596.17</v>
+        <v>5327.259999999999</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>11390.04</v>
+        <v>5710.949999999999</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>13148.26</v>
+        <v>7400.129999999999</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>13938.48</v>
+        <v>7440.499999999999</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>13938.48</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>19143.68</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>19170.36</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>19170.36</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>19170.36</v>
+        <v>7665.289999999999</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>19205.72</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>19233.97</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>19233.97</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>19233.97</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>19233.97</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>19233.97</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>19233.97</v>
+        <v>7675.449999999999</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>36817.21000000001</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>24880.44916666667</v>
+        <v>18959.85416666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1448.38</v>
+        <v>407.73</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>10413.21</v>
+        <v>4573.58</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>16087.52</v>
+        <v>5459.19</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>20215.63</v>
+        <v>5578.179999999999</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>23682.08</v>
+        <v>5668.209999999999</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>23807.78</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>30787.71</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>30787.71</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7302.079999999999</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7302.079999999999</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7352.829999999999</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7352.829999999999</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>36817.21000000001</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>32996.93</v>
+        <v>31929.93</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>24611.71916666667</v>
+        <v>18674.72833333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>2023.52</v>
+        <v>332.74</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>10950.08</v>
+        <v>7527.8</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>15360.99</v>
+        <v>11025.55</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>15915.25</v>
+        <v>31657.73</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>22324.43</v>
+        <v>31732.73</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>27196.23</v>
+        <v>31732.73</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>28209.64</v>
+        <v>31732.73</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>31340.65</v>
+        <v>31791.79</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>31397.36</v>
+        <v>31928.51</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>32953.36</v>
+        <v>31928.51</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>32996.93</v>
+        <v>31928.51</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>32996.93</v>
+        <v>31928.51</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>32996.93</v>
+        <v>31929.93</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>32996.93</v>
+        <v>31929.93</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>32996.93</v>
+        <v>31929.93</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>14402.84</v>
+        <v>13129.06</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>24633.53083333333</v>
+        <v>18101.9375</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>57.27999999999999</v>
+        <v>1200.86</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>10111.51</v>
+        <v>5541.190000000001</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>11422.01</v>
+        <v>9706.450000000001</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>11964.51</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>12769.01</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>12790.2</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>14346.2</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>14372.94</v>
+        <v>11444.53</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>14402.84</v>
+        <v>13072.5</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>14402.84</v>
+        <v>13077.34</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>14402.84</v>
+        <v>13077.34</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>14402.84</v>
+        <v>13077.34</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>14402.84</v>
+        <v>13077.34</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>14402.84</v>
+        <v>13129.06</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>12163.1</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>23784.6325</v>
+        <v>18045.39916666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>895.24</v>
+        <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>9618.709999999999</v>
+        <v>5210.08</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>11562.98</v>
+        <v>5413.47</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>11929.96</v>
+        <v>5413.47</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>12127.35</v>
+        <v>5413.47</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>12127.35</v>
+        <v>5413.47</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>12163.1</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>12163.1</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>12163.1</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>12163.1</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>12163.1</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>12163.1</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>12163.1</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>9482.009999999998</v>
+        <v>15832.32</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>22692.45583333333</v>
+        <v>17623.3575</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>541.86</v>
+        <v>1182.75</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>5744.24</v>
+        <v>7384.45</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>8899.209999999999</v>
+        <v>7637.37</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>9134.709999999999</v>
+        <v>9420.17</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>9134.709999999999</v>
+        <v>9420.17</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>9171.609999999999</v>
+        <v>11257.4</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>9409.659999999998</v>
+        <v>14116.69</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>9409.659999999998</v>
+        <v>15748.69</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>9409.659999999998</v>
+        <v>15768.6</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>9482.009999999998</v>
+        <v>15768.6</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>9482.009999999998</v>
+        <v>15801.18</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>9482.009999999998</v>
+        <v>15832.32</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>13444.95</v>
+        <v>11096.29</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>21360.85083333333</v>
+        <v>16908.89</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>535.26</v>
+        <v>176.1</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>3819.91</v>
+        <v>298.78</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>4804.71</v>
+        <v>1015.34</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>4886.8</v>
+        <v>1015.34</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>5003.570000000001</v>
+        <v>4854.66</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>6484.52</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>6600.879999999999</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>9271.699999999999</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>10950.86</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>10950.86</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>13444.95</v>
+        <v>11096.29</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>19461.56</v>
+        <v>8742.42</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>21157.32416666667</v>
+        <v>15826.14333333333</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>203.92</v>
+        <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>5316.150000000001</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>6130.35</v>
+        <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v>7918.77</v>
+        <v>5108.440000000001</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>19234.02</v>
+        <v>6872.43</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>19362.14</v>
+        <v>8525.440000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>19362.14</v>
+        <v>8733.82</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>19362.14</v>
+        <v>8742.42</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>19362.14</v>
+        <v>8742.42</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>19461.56</v>
+        <v>8742.42</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>27028.8</v>
+        <v>29112.88</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>20162.48666666667</v>
+        <v>15793.34833333333</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>430.81</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>3843.98</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>26075.59</v>
+        <v>4756.29</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>26279.72</v>
+        <v>6992.66</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>26387.38</v>
+        <v>27053.47</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>26728.8</v>
+        <v>28817.51</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>26728.8</v>
+        <v>28994.91</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>26728.8</v>
+        <v>29082.07</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>27028.8</v>
+        <v>29112.88</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>12336.73</v>
+        <v>14101.48</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>19338.82416666667</v>
+        <v>15232.275</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>1150.31</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>5769.530000000001</v>
+        <v>2497.04</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>8529.720000000001</v>
+        <v>10098.78</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>8681.780000000001</v>
+        <v>10354.23</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>8770.560000000001</v>
+        <v>12034.83</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>8770.560000000001</v>
+        <v>12117.42</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>8799.430000000002</v>
+        <v>13914.95</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>12336.73</v>
+        <v>14101.48</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>5888.559999999999</v>
+        <v>5369.09</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>19304.61333333333</v>
+        <v>14555.64166666666</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>576.23</v>
+        <v>604.13</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>4810.4</v>
+        <v>1918.73</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>5516.94</v>
+        <v>3154.87</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>5866.929999999999</v>
+        <v>3297.62</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>5866.929999999999</v>
+        <v>5006.51</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>5882.15</v>
+        <v>5006.51</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5369.09</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>7665.289999999999</v>
+        <v>2724.199999999999</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>18995.06666666667</v>
+        <v>13979.56583333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>966.78</v>
+        <v>824.88</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>5327.259999999999</v>
+        <v>2038.22</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>5710.949999999999</v>
+        <v>2357.4</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>7400.129999999999</v>
+        <v>2541.07</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>7440.499999999999</v>
+        <v>2677.48</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>2724.199999999999</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>5668.209999999999</v>
+        <v>7591.629999999999</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>18959.85416666667</v>
+        <v>13938.71416666667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>407.73</v>
+        <v>915.1600000000001</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>4573.58</v>
+        <v>3782.7</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>5459.19</v>
+        <v>7400.28</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>5578.179999999999</v>
+        <v>7414.679999999999</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>5668.209999999999</v>
+        <v>7591.629999999999</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>31657.73</v>
+        <v>2937.21</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>18674.72833333333</v>
+        <v>13913.1975</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>332.74</v>
+        <v>212.92</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>7527.799999999999</v>
+        <v>2210.4</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>11025.55</v>
+        <v>2301.19</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>31657.73</v>
+        <v>2937.21</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>9706.450000000001</v>
+        <v>2928.17</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>18101.9375</v>
+        <v>13879.35666666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>80</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>1200.86</v>
+        <v>676.89</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>5541.19</v>
+        <v>1718.88</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>9706.450000000001</v>
+        <v>2928.17</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>5210.08</v>
+        <v>1932.35</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>18045.39916666667</v>
+        <v>13527.49666666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>80</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v/>
+        <v>61.2</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>5210.08</v>
+        <v>1932.35</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>1182.75</v>
+        <v>29.69</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>17623.3575</v>
+        <v>13282.21333333333</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>80</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>1182.75</v>
+        <v>29.69</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_GBR.xlsx
+++ b/Process Results/Unified_IBNP_GBR.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07232431063360788</v>
+        <v>0.01608563840549096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04889723548677362</v>
+        <v>0.01795390897584904</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.06002047923273299</v>
+        <v>0.02377275374943108</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.05834703419733878</v>
+        <v>0.01696850340077802</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4457769623235034</v>
+        <v>0.3480074366556177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2018296393767698</v>
+        <v>0.3696206002080502</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2744946831958319</v>
+        <v>0.2290091981077147</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2778569684496984</v>
+        <v>0.3584885511878382</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7300333448011289</v>
+        <v>0.6058442806856872</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4023591944957635</v>
+        <v>0.5678167015716312</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4379501214357777</v>
+        <v>0.4029996078476763</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5187876436409797</v>
+        <v>0.5862144287413358</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.780528417106011</v>
+        <v>0.8206178034538428</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4487743084819731</v>
+        <v>0.7176369139472675</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6133604910168543</v>
+        <v>0.4710018606951419</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.5698858277073082</v>
+        <v>0.7656802496218056</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8996244350616426</v>
+        <v>0.8254176822097796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7695967824426562</v>
+        <v>0.7795886040301027</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7970750570705301</v>
+        <v>0.7367498915618337</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8295462139708266</v>
+        <v>0.8018488452443486</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9055238973873712</v>
+        <v>0.9344967938814922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8376932692296157</v>
+        <v>0.8355126534830635</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.852132127351969</v>
+        <v>0.8075680221445753</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8702888985886588</v>
+        <v>0.8822369813786974</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9515971411816874</v>
+        <v>0.9405006173760279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9017485768068373</v>
+        <v>0.8965404327375491</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8868777255869149</v>
+        <v>0.8657311792490878</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9260024823489026</v>
+        <v>0.9179945439325969</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9567986751735366</v>
+        <v>0.9405006173760279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9547875685979591</v>
+        <v>0.9005652143146309</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9452972263436707</v>
+        <v>0.9125006229052106</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9557920639816979</v>
+        <v>0.9200997872764797</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9915381526256722</v>
+        <v>0.9413563254207113</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9949219640572949</v>
+        <v>0.9176141356788392</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9662049128209012</v>
+        <v>0.9415508217009424</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9932271762851793</v>
+        <v>0.9293336166361778</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9915381526256722</v>
+        <v>0.9431549453585564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9951893779089933</v>
+        <v>0.9270433845758019</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9669199076862636</v>
+        <v>0.9460884763153995</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9933604101404055</v>
+        <v>0.935029765271248</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.996997461264341</v>
+        <v>0.9432356345618157</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9976615145409106</v>
+        <v>0.9289229252368539</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9984734221173572</v>
+        <v>0.947454199719882</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9973293773657472</v>
+        <v>0.9360245693495397</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9978976249340991</v>
+        <v>0.9470598531223384</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9980431945419473</v>
+        <v>0.9502239936999555</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9986557414422486</v>
+        <v>0.9593152175813127</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9979704044296216</v>
+        <v>0.9486392849589164</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9979256196763457</v>
+        <v>0.9470598531223384</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9987715876434826</v>
+        <v>0.9502239936999555</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9993096828315009</v>
+        <v>0.9596162478358156</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9983484244485149</v>
+        <v>0.9486392849589164</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9989113456976801</v>
+        <v>0.9498100097379298</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9994316427427241</v>
+        <v>0.9524428535343745</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9996299109328984</v>
+        <v>0.9608861870230018</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.999171426486831</v>
+        <v>0.9511246096211641</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9564769115602789</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9999648873876334</v>
+        <v>0.9552817613146198</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9999668927633025</v>
+        <v>0.9633612417676596</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9999699251965773</v>
+        <v>0.955878962858888</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9637483726510646</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9999648873876334</v>
+        <v>0.9757346705800444</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9999668927633025</v>
+        <v>0.9792549250230309</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9999699251965773</v>
+        <v>0.9697044830504213</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.970584477244795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9787685465039825</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9817552831568651</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9746593320745208</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4487,20 +4487,20 @@
         <v/>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
         <f>+I27/I28</f>
         <v/>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
         <f>I27</f>
@@ -4833,67 +4833,67 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>10.7442808632322</v>
+        <v>5.015630569150925</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.202134173917293</v>
+        <v>1.478408119898848</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.031737493275955</v>
+        <v>1.017827079904147</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.016545738627791</v>
+        <v>1.010226013559431</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.002947882266118</v>
+        <v>1.00329169403094</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>1.401991947205671</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1.000072349976568</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W38" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -4908,22 +4908,22 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>10.60096703945669</v>
+        <v>8.348055463964041</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.54924063061432</v>
+        <v>1.146877598536504</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.026463023122277</v>
+        <v>1.063439152863725</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.004039537106268</v>
+        <v>1.002594201737536</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.025955094034744</v>
+        <v>1.001089737595947</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.007688906931813</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.006024039206877</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>1</v>
@@ -4983,34 +4983,34 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>7.136550461457983</v>
+        <v>5.510312584041872</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.257807121110183</v>
+        <v>1.072023892207251</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.017085318364688</v>
+        <v>1.295779161085284</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.023894982401572</v>
+        <v>1.005455309568886</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.943602267980662</v>
+        <v>1.030211679322626</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.382521246895871</v>
+        <v>1.001325455396991</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
@@ -5058,19 +5058,19 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>26.0697822675559</v>
+        <v>11.21717803448361</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.153155949324229</v>
+        <v>1.193636057530425</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.291732119699528</v>
+        <v>1.021796273806187</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>2.42891509666274</v>
+        <v>1.016139672796504</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.006661114005289</v>
+        <v>1.282577745002391</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
@@ -5082,22 +5082,22 @@
         <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.005134762996239</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>1.004423707551115</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>1.006950074499321</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>1.006800102817555</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
@@ -5133,40 +5133,40 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>8.922680532021076</v>
+        <v>22.62367013283645</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>6.783487427093793</v>
+        <v>1.464644384813624</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.007828394295201</v>
+        <v>2.871306193341829</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.004096695094164</v>
+        <v>1.002369089634664</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.012938760877359</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001861169839469</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.011223848433151</v>
+        <v>1.004300481350688</v>
       </c>
       <c r="J42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.055496359438821</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.000044474358496</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5178,10 +5178,10 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.000030846022265</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1</v>
+        <v>1.050109724637667</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>1</v>
@@ -5208,58 +5208,58 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5.015630569150925</v>
+        <v>4.614351381509918</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.478408119898848</v>
+        <v>1.751690521350107</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.017827079904147</v>
+        <v>1.010021171489061</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.010226013559431</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.00329169403094</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.401991947205671</v>
+        <v>1.167366061046215</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.142248742412314</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000370242876267</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.003954932730968</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.12186706435952</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.017668473072959</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,22 +5283,22 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>8.348055463964041</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.146877598536504</v>
+        <v>1.03903778828732</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.063439152863725</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.002594201737536</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.001089737595947</v>
+        <v>1.03316911334135</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>1.003270141586939</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.046780436688693</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,37 +5358,37 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>5.510312584041871</v>
+        <v>6.235611921369689</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.072023892207251</v>
+        <v>1.034293446795125</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.295779161085284</v>
+        <v>1.233715123969434</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.005455309568886</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.030211679322626</v>
+        <v>1.195223831114804</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>1.254201591021433</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>1.115683885277312</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>1.001264977530924</v>
       </c>
       <c r="J45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.001325455396991</v>
+        <v>1.002067348083547</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001971896985163</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5397,7 +5397,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.016589732440795</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>11.21717803448361</v>
+        <v>1.696649630891539</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.193636057530425</v>
+        <v>3.398286364549167</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.021796273806187</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.016139672796504</v>
+        <v>4.781314633521776</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.282577745002391</v>
+        <v>1.335731029567467</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>1.017944273438898</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>1.40461574820327</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>1.181105946050886</v>
       </c>
       <c r="J46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.004423707551115</v>
+        <v>1.013280235524881</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>1.156421650840055</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.006950074499321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.006800102817555</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,28 +5508,28 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>22.62367013283645</v>
+        <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.464644384813624</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>2.871306193341829</v>
+        <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.002369089634664</v>
+        <v>1.345308939715451</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.240527731821204</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.024442140229712</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.001861169839469</v>
+        <v>1.000984677953061</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.004300481350688</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.000044474358496</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>4.614351381509918</v>
+        <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.751690521350107</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.010021171489061</v>
+        <v>1.470192103509248</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1</v>
+        <v>3.868838181750578</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1</v>
+        <v>1.065205683411407</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>1.001344321560051</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.167366061046215</v>
+        <v>1.003020489495343</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.142248742412314</v>
+        <v>1.001064491018854</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.000370242876267</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.007040741735239</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.003954932730968</v>
+        <v>1.005051027787164</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,28 +5661,28 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.03903778828732</v>
+        <v>4.044300451734854</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1</v>
+        <v>1.02529513465983</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>1.162310476008356</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.00686258135761</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.03316911334135</v>
+        <v>1.148342633993045</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>1.013405006845156</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.075621849621458</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.003270141586939</v>
+        <v>1.045520594203797</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>6.243458042697104</v>
+        <v>3.176021717180077</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.034250350398473</v>
+        <v>1.644249060576527</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.233431141872137</v>
+        <v>1.04524750623639</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.51821920051431</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.195031512170162</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.253992040790946</v>
+        <v>1.072421706937567</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.115607837247967</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.001264232136133</v>
+        <v>1.020953271410984</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.002066131425745</v>
+        <v>1.00037580337092</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.001970738894184</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1.696649630891539</v>
+        <v>2.470929104839492</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>3.398286364549167</v>
+        <v>1.156597423241848</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v>1.077912106558073</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>4.781314633521776</v>
+        <v>1.053682110292121</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.335731029567467</v>
+        <v>1.017449243318344</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.017944273438898</v>
+        <v>1.005396079582997</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.40461574820327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.181105946050886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.013280235524881</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v/>
+        <v>4.133375584597228</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v/>
+        <v>1.956348639860417</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v/>
+        <v>1.001945872318345</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.345308939715451</v>
+        <v>1.023864819520195</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.240527731821204</v>
+        <v>1.013488539351892</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.024442140229712</v>
+        <v>1.21389050991483</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.000984677953061</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>1.001584631642738</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>1.003589712341961</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v/>
+        <v>10.3813638925418</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v/>
+        <v>1.041074013753167</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.470192103509248</v>
+        <v>1.276387434327457</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>3.868838181750578</v>
+        <v>1.38895073896657</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.065205683411407</v>
+        <v>1.005355864733163</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.006155979472203</v>
+        <v>1.021075267768543</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.00300604485408</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.001059415646823</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v/>
+        <v>2.539378628728449</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>4.044300451734854</v>
+        <v>1.703533696360421</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.02529513465983</v>
+        <v>1.11562511739414</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.162310476008356</v>
+        <v>1.27277959066225</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.00686258135761</v>
+        <v>1.443037731129625</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.148342633993045</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.013405006845156</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>3.176021717180077</v>
+        <v>31.57434640522876</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.644249060576527</v>
+        <v>1.598085233006443</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.04524750623639</v>
+        <v>1.067365919055977</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.51821920051431</v>
+        <v>1.006513778446584</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.010682549825776</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.072421706937567</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>2.470929104839492</v>
+        <v>147.6163691478612</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.156597423241848</v>
+        <v>1.106365210724822</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.077912106558073</v>
+        <v>1.377287632246489</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.053682110292121</v>
+        <v>1.008046921910118</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.017449243318344</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>4.133375584597228</v>
+        <v>4.397441589433376</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.956348639860417</v>
+        <v>1.764297207761477</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.001945872318345</v>
+        <v>1.031470294745652</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.023864819520195</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>10.3813638925418</v>
+        <v>7.470881262934976</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.041074013753167</v>
+        <v>1.133376282433281</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.276387434327457</v>
+        <v>1.579799403724872</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>2.539378628728449</v>
+        <v>3.89630543771693</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.703533696360421</v>
+        <v>2.472915297452668</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>31.57434640522876</v>
+        <v>87.55001137483886</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.04902363627426313</v>
+        <v>0.04103540569123582</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.06002047923273299</v>
+        <v>0.02377275374943108</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.04889723548677362</v>
+        <v>0.01795390897584904</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.07232431063360788</v>
+        <v>0.01608563840549096</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02484242061936093</v>
+        <v>0.01354397365996396</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.02428491038894539</v>
+        <v>0.007305153445234605</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.02151514074879668</v>
+        <v>0.007478373836680608</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.02747788145065208</v>
+        <v>0.01041199908203475</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.05834703419733878</v>
+        <v>0.01696850340077802</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.992171166725654</v>
+        <v>8.132915026693851</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.5733504081409</v>
+        <v>9.633263378803779</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>4.127628839699198</v>
+        <v>20.58719361367214</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>6.163583979137969</v>
+        <v>21.63466738981417</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>9.632578017706059</v>
+        <v>19.49830967706048</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>7.776940375838056</v>
+        <v>27.74603855871829</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>9.0459025555193</v>
+        <v>47.08422586966901</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>14.831696308833</v>
+        <v>32.97239935849692</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>5.145606409418583</v>
+        <v>21.11093050174316</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3427816560449485</v>
+        <v>0.3337374675727302</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.2744946831958319</v>
+        <v>0.2290091981077147</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2018296393767698</v>
+        <v>0.3696206002080502</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4457769623235034</v>
+        <v>0.3480074366556177</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.2392965547646638</v>
+        <v>0.2640845926799275</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.1888623001273984</v>
+        <v>0.2026890691688331</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.1946238666818973</v>
+        <v>0.352113442864093</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.4075435928861873</v>
+        <v>0.3433085918531533</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2778569684496984</v>
+        <v>0.3584885511878382</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.63828200435673</v>
+        <v>1.466938271265194</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.595477611212354</v>
+        <v>1.759752932098933</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.993558506759509</v>
+        <v>1.536214976254087</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.63766503543837</v>
+        <v>1.740894638654577</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.853539183257939</v>
+        <v>1.660002034543715</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.87693683101123</v>
+        <v>1.78374022880963</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.924350547587872</v>
+        <v>1.629762154623186</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.566985449991335</v>
+        <v>1.790196262549142</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.815611771098939</v>
+        <v>1.638554807454332</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5615730185220374</v>
+        <v>0.4895722637375644</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.4379501214357777</v>
+        <v>0.4029996078476763</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4023591944957635</v>
+        <v>0.5678167015716312</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.7300333448011289</v>
+        <v>0.6058442806856872</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.4435455406749336</v>
+        <v>0.4383809611403279</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.354482607098611</v>
+        <v>0.3615446466164252</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.3745245444229781</v>
+        <v>0.5738611633139722</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.6386148802898476</v>
+        <v>0.6145897580365237</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5187876436409797</v>
+        <v>0.5862144287413358</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.209873660031406</v>
+        <v>1.305770817941539</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.40052590693664</v>
+        <v>1.168740245705571</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.11535740855724</v>
+        <v>1.263853127181635</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.069168172473872</v>
+        <v>1.354502847703832</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.189271334036468</v>
+        <v>1.229120634061807</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.273794424028397</v>
+        <v>1.188048047706952</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.149496692934891</v>
+        <v>1.241322633582431</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.118748471067958</v>
+        <v>1.329519110239004</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.092262790515556</v>
+        <v>1.309177987442734</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6794324032941421</v>
+        <v>0.6392691752620906</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.6133604910168543</v>
+        <v>0.4710018606951419</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.4487743084819731</v>
+        <v>0.7176369139472675</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.780528417106011</v>
+        <v>0.8206178034538428</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5274959968644047</v>
+        <v>0.5388230849174243</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.4515379683372598</v>
+        <v>0.4295324115715439</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.4305147252371599</v>
+        <v>0.7123468505555777</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.714449420925514</v>
+        <v>0.817108828266724</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.5698858277073082</v>
+        <v>0.7656802496218056</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.229104101909001</v>
+        <v>1.227579312775432</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.29952135611002</v>
+        <v>1.564218643371132</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.714886008171678</v>
+        <v>1.08632734587478</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.152583833394827</v>
+        <v>1.005849103852896</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.463059047983427</v>
+        <v>1.42320097384339</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.647670593646163</v>
+        <v>1.702485782609026</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.662037287966836</v>
+        <v>1.116692641584286</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.198588710108875</v>
+        <v>1.004853566785567</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.433734920783253</v>
+        <v>1.046088224863838</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8350931538587204</v>
+        <v>0.7847536148467541</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7970750570705301</v>
+        <v>0.7367498915618337</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.7695967824426562</v>
+        <v>0.7795886040301027</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8996244350616426</v>
+        <v>0.8254176822097796</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7717577909875047</v>
+        <v>0.7668535391837776</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7439858323440353</v>
+        <v>0.731272823870322</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.7155315263629567</v>
+        <v>0.7954724862711549</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8563310098651448</v>
+        <v>0.8210747205357933</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8295462139708266</v>
+        <v>0.8018488452443486</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.065654138619234</v>
+        <v>1.064438564993837</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.069073884313717</v>
+        <v>1.096122349516217</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.088483330934447</v>
+        <v>1.071735334718671</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.006557694628786</v>
+        <v>1.132150199859651</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.112812267772543</v>
+        <v>1.086786758510202</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.097799767164268</v>
+        <v>1.111130398802608</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.110962711579339</v>
+        <v>1.0816689880598</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.008103941558651</v>
+        <v>1.1512400936518</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.047520512781617</v>
+        <v>1.101942767289161</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8899204755421343</v>
+        <v>0.8353220116612049</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.852132127351969</v>
+        <v>0.8075680221445753</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8376932692296157</v>
+        <v>0.8355126534830635</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9055238973873712</v>
+        <v>0.9344967938814922</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8588215375599336</v>
+        <v>0.833406272101614</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8167474735207958</v>
+        <v>0.8125394644205399</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.7949288447486933</v>
+        <v>0.860437919254333</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8632706663239528</v>
+        <v>0.9452541381647522</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8702888985886588</v>
+        <v>0.8822369813786974</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.026610025462951</v>
+        <v>1.04254991020219</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.040774895253532</v>
+        <v>1.072022610491751</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.076466303276055</v>
+        <v>1.073042315996143</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.050880207498938</v>
+        <v>1.006424659275286</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.032764016451748</v>
+        <v>1.044256059411962</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.046463135483306</v>
+        <v>1.066018969815702</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.087216462477062</v>
+        <v>1.052130594033989</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.075640106800938</v>
+        <v>1.007025089256181</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.063673255387496</v>
+        <v>1.039733487635714</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9136012820563116</v>
+        <v>0.8708648882473019</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8868777255869149</v>
+        <v>0.8657311792490878</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9017485768068373</v>
+        <v>0.8965404327375491</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9515971411816874</v>
+        <v>0.9405006173760279</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8869599805456633</v>
+        <v>0.8702895495940447</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8546961220386402</v>
+        <v>0.8661824827961864</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.864259726508652</v>
+        <v>0.9052930591144311</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9285685517228139</v>
+        <v>0.951894632855134</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9260024823489026</v>
+        <v>0.9179945439325969</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.043364980654967</v>
+        <v>1.055618314540179</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.065870975300564</v>
+        <v>1.054023055628757</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.058817937898984</v>
+        <v>1.00448923598994</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.005466109309019</v>
+        <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.065225793717346</v>
+        <v>1.065231116815617</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.092403207766241</v>
+        <v>1.058756322401696</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.089603219183922</v>
+        <v>1.002234167807526</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.005798576550766</v>
+        <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.032142023604002</v>
+        <v>1.00224461799497</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9532195839790364</v>
+        <v>0.919300925523838</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9452972263436707</v>
+        <v>0.9125006229052106</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9547875685979591</v>
+        <v>0.9005652143146309</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9567986751735366</v>
+        <v>0.9405006173760279</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.944812649272276</v>
+        <v>0.927059508867025</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9336727853803771</v>
+        <v>0.9170761800140608</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9417001802148435</v>
+        <v>0.9073156357234813</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9339529275526122</v>
+        <v>0.951894632855134</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9557920639816979</v>
+        <v>0.9200997872764797</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.01707547603677</v>
+        <v>1.025984639507294</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.022117579417957</v>
+        <v>1.031835812564426</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.042034895278612</v>
+        <v>1.018931356767076</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.036308032560596</v>
+        <v>1.000909843150418</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.021325166626875</v>
+        <v>1.026759024439928</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.028433555502499</v>
+        <v>1.035678699253237</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.054279722707693</v>
+        <v>1.016537373949006</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.06072178723257</v>
+        <v>1.000528210547579</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.039171463919604</v>
+        <v>1.009920599958747</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.96949626214305</v>
+        <v>0.9431886286722965</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9662049128209012</v>
+        <v>0.9415508217009424</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9949219640572949</v>
+        <v>0.9176141356788392</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9915381526256722</v>
+        <v>0.9413563254207113</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.964960936449186</v>
+        <v>0.951866716922065</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9602204223446633</v>
+        <v>0.9497962652330898</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9928154048706894</v>
+        <v>0.9223202536812205</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9906642185046974</v>
+        <v>0.9523974336403922</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9932271762851793</v>
+        <v>0.9293336166361778</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000989817072765</v>
+        <v>1.004129684792893</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000740003342847</v>
+        <v>1.004819341144283</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000268778719698</v>
+        <v>1.01027583221567</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.0019106685633</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.001097603626084</v>
+        <v>1.003516712733931</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.000731262288287</v>
+        <v>1.004395890917414</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.000606730743868</v>
+        <v>1.00818505109096</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.001196570780654</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000134389359849</v>
+        <v>1.006093250389485</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9704558860953012</v>
+        <v>0.9470837004089537</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9669199076862636</v>
+        <v>0.9460884763153995</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9951893779089933</v>
+        <v>0.9270433845758019</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9915381526256722</v>
+        <v>0.9431549453585564</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9660200810720619</v>
+        <v>0.95521415872647</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9609225953279672</v>
+        <v>0.9539714660088214</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9934177764998099</v>
+        <v>0.9298694920798283</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9906642185046974</v>
+        <v>0.953537044581056</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9933604101404055</v>
+        <v>0.935029765271248</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.028882994071647</v>
+        <v>1.001290839059319</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.032633017668028</v>
+        <v>1.001443547235457</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.002484086633954</v>
+        <v>1.002027457066545</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.005505898713239</v>
+        <v>1.000085552436168</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.032793795445244</v>
+        <v>1.001533753566247</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.038259428019452</v>
+        <v>1.001789379160621</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.003295012416957</v>
+        <v>1.002276006482633</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.005115455650209</v>
+        <v>1.000125267790307</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.003994992673596</v>
+        <v>1.001056504751356</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.998485557700187</v>
+        <v>0.948306233041886</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9984734221173572</v>
+        <v>0.947454199719882</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9976615145409106</v>
+        <v>0.9289229252368539</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.996997461264341</v>
+        <v>0.9432356345618157</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9976995460067376</v>
+        <v>0.9566792218489462</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9976869441961824</v>
+        <v>0.9556784826699248</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9966911004086023</v>
+        <v>0.931985881071805</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9957319173787069</v>
+        <v>0.9536564920596063</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9973293773657472</v>
+        <v>0.9360245693495397</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.000170441866434</v>
+        <v>1.011609102793845</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000182598075074</v>
+        <v>1.01251882979139</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000382574646284</v>
+        <v>1.022930932033645</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000902874585675</v>
+        <v>1.004054361837484</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.000151595299553</v>
+        <v>1.012725714581574</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.000164228241182</v>
+        <v>1.013786190796705</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000328456482364</v>
+        <v>1.02757238159341</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.000656912964728</v>
+        <v>1.002346913911746</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.00064272461598</v>
+        <v>1.013492646935565</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9986557414422486</v>
+        <v>0.9593152175813127</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9986557414422486</v>
+        <v>0.9593152175813127</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9980431945419473</v>
+        <v>0.9502239936999555</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9978976249340991</v>
+        <v>0.9470598531223384</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.997850792568278</v>
+        <v>0.9688536485723178</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.997850792568278</v>
+        <v>0.9688536485723178</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9970184700614458</v>
+        <v>0.957682951424387</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9963860265846263</v>
+        <v>0.9558946417478484</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9979704044296216</v>
+        <v>0.9486392849589164</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000654821638844</v>
+        <v>1.0003137970179</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000654821638844</v>
+        <v>1.0003137970179</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.000729821219681</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.000028053721692</v>
+        <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.001084882338724</v>
+        <v>1.000582879071485</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.001084882338724</v>
+        <v>1.000582879071485</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.001165758142969</v>
+        <v>1</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.000014824786166</v>
+        <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000378937470686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9993096828315009</v>
+        <v>0.9596162478358156</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9993096828315009</v>
+        <v>0.9596162478358156</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9987715876434826</v>
+        <v>0.9502239936999555</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9979256196763457</v>
+        <v>0.9470598531223384</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9989333432698173</v>
+        <v>0.9694183730874023</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9989333432698173</v>
+        <v>0.9694183730874023</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.998180752461611</v>
+        <v>0.957682951424387</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9964007977944086</v>
+        <v>0.9558946417478484</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9983484244485149</v>
+        <v>0.9486392849589164</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.00032044931306</v>
+        <v>1.001323382331271</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.00032044931306</v>
+        <v>1.001323382331271</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000660866916327</v>
+        <v>1.002335091356491</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000987775042447</v>
+        <v>1.002903888921618</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000359539339179</v>
+        <v>1.000818723683467</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000359539339179</v>
+        <v>1.000818723683467</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000659155455161</v>
+        <v>1.001500993419689</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.001318310910323</v>
+        <v>1.001683675929055</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000824320979387</v>
+        <v>1.002619490139055</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9996299109328984</v>
+        <v>0.9608861870230018</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9996299109328984</v>
+        <v>0.9608861870230018</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9994316427427241</v>
+        <v>0.9524428535343745</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9989113456976801</v>
+        <v>0.9498100097379298</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9992924991039402</v>
+        <v>0.9702120588686367</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9992924991039402</v>
+        <v>0.9702120588686367</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9988387087498332</v>
+        <v>0.9591204272326231</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9977143638371951</v>
+        <v>0.9575040585468717</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.999171426486831</v>
+        <v>0.9511246096211641</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000337106589867</v>
+        <v>1.002575804271186</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000337106589867</v>
+        <v>1.002575804271186</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000533547890725</v>
+        <v>1.002980659437688</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.001064776532155</v>
+        <v>1.007019195159028</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000680010281755</v>
+        <v>1.002338983525835</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000680010281755</v>
+        <v>1.002338983525835</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.001133350469593</v>
+        <v>1.002764955406799</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.002266700939185</v>
+        <v>1.005529910813598</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.00079916221144</v>
+        <v>1.004999927298358</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9999668927633025</v>
+        <v>0.9633612417676596</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9999668927633025</v>
+        <v>0.9633612417676596</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9999648873876334</v>
+        <v>0.9552817613146198</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9564769115602789</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9999720282778121</v>
+        <v>0.972481368890897</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9999720282778121</v>
+        <v>0.972481368890897</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.999970743069442</v>
+        <v>0.9617723524436717</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>0.9627989705942942</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9999699251965773</v>
+        <v>0.955878962858888</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1</v>
+        <v>1.016498155174074</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1</v>
+        <v>1.016498155174074</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1</v>
+        <v>1.021410342051625</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.007602338334465</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1</v>
+        <v>1.018738611227579</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1</v>
+        <v>1.018738611227579</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1</v>
+        <v>1.028107916841369</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.015593478896231</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1</v>
+        <v>1.014506340193045</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9999668927633025</v>
+        <v>0.9792549250230309</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9999668927633025</v>
+        <v>0.9792549250230309</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9999648873876334</v>
+        <v>0.9757346705800444</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9637483726510646</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9999720282778121</v>
+        <v>0.9907043191886076</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9999720282778121</v>
+        <v>0.9907043191886076</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.999970743069442</v>
+        <v>0.9888057697464862</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>0.9778123560235695</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9999699251965773</v>
+        <v>0.9697044830504213</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000008070560174</v>
+        <v>1.002553327095879</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000008070560174</v>
+        <v>1.002553327095879</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.000010076022444</v>
+        <v>1.003109324712357</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1</v>
+        <v>1.007093246315867</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000003855752783</v>
+        <v>1.00220855913412</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000003855752783</v>
+        <v>1.00220855913412</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000005141003711</v>
+        <v>1.00294474551216</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1</v>
+        <v>1.00588949102432</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000005038011222</v>
+        <v>1.005101285514112</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9817552831568651</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9817552831568651</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9787685465039825</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.970584477244795</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>0.9928923482619637</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>0.9928923482619637</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>0.991717551099345</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>0.9835711731178394</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>0.9746593320745208</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1</v>
+        <v>1.018583772510466</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1</v>
+        <v>1.018583772510466</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1</v>
+        <v>1.021692006319424</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>1</v>
+        <v>1.030307019579282</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1</v>
+        <v>1.007158532091095</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1</v>
+        <v>1.007158532091095</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1</v>
+        <v>1.008351620772945</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1</v>
+        <v>1.016703241545889</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>1.025999512949353</v>
       </c>
     </row>
     <row r="19">
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,31 +7919,31 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
@@ -7983,62 +7983,62 @@
         <v/>
       </c>
       <c r="B22" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="C22" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="D22" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="E22" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="H22" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="I22" s="34" t="n">
-        <v>0.9999758839227431</v>
+        <v>1</v>
       </c>
       <c r="J22" s="34" t="n">
-        <v>0.9999749630562823</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <f>+M21+1</f>
         <v/>
       </c>
       <c r="N22" s="22" t="n">
-        <v>1.000025037570582</v>
+        <v>1</v>
       </c>
       <c r="O22" s="22" t="n">
-        <v>1.000025037570582</v>
+        <v>1</v>
       </c>
       <c r="P22" s="22" t="n">
-        <v>1.000025037570582</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="22" t="n">
-        <v>1.000025037570582</v>
+        <v>1</v>
       </c>
       <c r="R22" s="22" t="n">
-        <v>1.000024116658856</v>
+        <v>1</v>
       </c>
       <c r="S22" s="22" t="n">
-        <v>1.000024116658856</v>
+        <v>1</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>1.000024116658856</v>
+        <v>1</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1.000024116658856</v>
+        <v>1</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1.000025037570582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>12163.98</v>
+        <v>12336.73</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>23784.6325</v>
+        <v>19338.82416666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>895.24</v>
+        <v>1150.31</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>9618.709999999999</v>
+        <v>5769.530000000001</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>11562.98</v>
+        <v>8529.720000000001</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>11929.96</v>
+        <v>8681.780000000001</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>12127.35</v>
+        <v>8770.560000000001</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>12127.35</v>
+        <v>8770.560000000001</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>12163.1</v>
+        <v>8799.430000000002</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>12163.1</v>
+        <v>12336.73</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>12163.98</v>
+        <v>12336.73</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>12163.98</v>
+        <v>12336.73</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>12163.98</v>
+        <v>12336.73</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>22692.45583333333</v>
+        <v>19304.61333333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>541.86</v>
+        <v>576.23</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>5744.24</v>
+        <v>4810.4</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>8899.209999999999</v>
+        <v>5516.94</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>9134.709999999999</v>
+        <v>5866.929999999999</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>9134.709999999999</v>
+        <v>5866.929999999999</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>9171.609999999999</v>
+        <v>5882.15</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>9409.659999999998</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>9409.659999999998</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>9409.659999999998</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>9482.009999999998</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>9482.009999999998</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>9482.009999999998</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>9539.129999999999</v>
+        <v>5888.559999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>21360.85083333333</v>
+        <v>18995.06666666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>535.26</v>
+        <v>966.78</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>3819.91</v>
+        <v>5327.26</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>4804.71</v>
+        <v>5710.95</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>4886.8</v>
+        <v>7400.13</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>5003.570000000001</v>
+        <v>7440.5</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>7665.29</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>7665.29</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>7665.29</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>7665.29</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>9724.950000000001</v>
+        <v>7665.29</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>13444.95</v>
+        <v>7675.45</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>21157.32416666666</v>
+        <v>18959.85416666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>203.92</v>
+        <v>407.73</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>5316.150000000001</v>
+        <v>4573.58</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>6130.35</v>
+        <v>5459.19</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>7918.77</v>
+        <v>5578.179999999999</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>19234.02</v>
+        <v>5668.209999999999</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>19362.14</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>19362.14</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>19362.14</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>19362.14</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7269.919999999999</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7302.079999999999</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7302.079999999999</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7352.829999999999</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7352.829999999999</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>19461.56</v>
+        <v>7402.829999999999</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>28529.68</v>
+        <v>33529.93</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>20162.48666666667</v>
+        <v>18674.72833333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>430.81</v>
+        <v>332.74</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>3843.98</v>
+        <v>7527.8</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>26075.59</v>
+        <v>11025.55</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>26279.72</v>
+        <v>31657.73</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>26387.38</v>
+        <v>31732.73</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>26728.8</v>
+        <v>31732.73</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>26728.8</v>
+        <v>31732.73</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>26728.8</v>
+        <v>31791.79</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>27028.8</v>
+        <v>31928.51</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>27028.8</v>
+        <v>31928.51</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>28528.8</v>
+        <v>31928.51</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>28528.8</v>
+        <v>31928.51</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>28528.8</v>
+        <v>31929.93</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>28528.8</v>
+        <v>31929.93</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>28528.8</v>
+        <v>31929.93</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>28528.8</v>
+        <v>31929.93</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>28529.68</v>
+        <v>31929.93</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>28529.68</v>
+        <v>33529.93</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>28529.68</v>
+        <v>33529.93</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>28529.68</v>
+        <v>33529.93</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>12336.73</v>
+        <v>14989.3</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>19338.82416666667</v>
+        <v>18101.9375</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1150.31</v>
+        <v>1200.86</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>5769.530000000001</v>
+        <v>5541.190000000001</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>8529.720000000001</v>
+        <v>9706.450000000001</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>8681.780000000001</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>8770.560000000001</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>8770.560000000001</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>8799.430000000002</v>
+        <v>9803.720000000001</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>12336.73</v>
+        <v>11444.53</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>12336.73</v>
+        <v>13072.5</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>12336.73</v>
+        <v>13077.34</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>12336.73</v>
+        <v>13077.34</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>12336.73</v>
+        <v>13077.34</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>12336.73</v>
+        <v>13077.34</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>12336.73</v>
+        <v>13129.06</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>12336.73</v>
+        <v>13129.06</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>12336.73</v>
+        <v>14729.06</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>12336.73</v>
+        <v>14989.3</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>12336.73</v>
+        <v>14989.3</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>12336.73</v>
+        <v>14989.3</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>5888.559999999999</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>19304.61333333333</v>
+        <v>18045.39916666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>576.23</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>4810.4</v>
+        <v>5210.08</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>5516.94</v>
+        <v>5413.47</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>5866.929999999999</v>
+        <v>5413.47</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>5866.929999999999</v>
+        <v>5413.47</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>5882.15</v>
+        <v>5413.47</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5593.030000000001</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5611.320000000001</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>5888.559999999999</v>
+        <v>5873.820000000001</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>7675.449999999999</v>
+        <v>16085.54</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>18995.06666666667</v>
+        <v>17623.3575</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>966.78</v>
+        <v>1182.75</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>5327.259999999999</v>
+        <v>7375.17</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>5710.949999999999</v>
+        <v>7628.09</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>7400.129999999999</v>
+        <v>9410.889999999999</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>7440.499999999999</v>
+        <v>9410.889999999999</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>11248.12</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>14107.41</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>15739.41</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>15759.32</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>7665.289999999999</v>
+        <v>15759.32</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>15791.9</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>15823.04</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>15823.04</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>15823.04</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>16085.54</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>16085.54</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>7675.449999999999</v>
+        <v>16085.54</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>7402.829999999999</v>
+        <v>12831.99</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>18959.85416666667</v>
+        <v>16908.89</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>407.73</v>
+        <v>176.1</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>4573.58</v>
+        <v>298.78</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>5459.19</v>
+        <v>1015.34</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>5578.179999999999</v>
+        <v>1015.34</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>5668.209999999999</v>
+        <v>4854.66</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>6484.52</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>6600.879999999999</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>9271.699999999999</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>10950.86</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>7269.919999999999</v>
+        <v>10950.86</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>7302.079999999999</v>
+        <v>11096.29</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>7302.079999999999</v>
+        <v>12831.99</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>7352.829999999999</v>
+        <v>12831.99</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>7352.829999999999</v>
+        <v>12831.99</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>12831.99</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>7402.829999999999</v>
+        <v>12831.99</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>31929.93</v>
+        <v>8742.42</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>18674.72833333333</v>
+        <v>15826.14333333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>332.74</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>7527.8</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>11025.55</v>
+        <v/>
       </c>
       <c r="V17" s="22" t="n">
-        <v>31657.73</v>
+        <v>5108.440000000001</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>31732.73</v>
+        <v>6872.43</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>31732.73</v>
+        <v>8525.440000000001</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>31732.73</v>
+        <v>8733.82</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>31791.79</v>
+        <v>8742.42</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>31928.51</v>
+        <v>8742.42</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>31928.51</v>
+        <v>8742.42</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>31928.51</v>
+        <v>8742.42</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>31928.51</v>
+        <v>8742.42</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>31929.93</v>
+        <v>8742.42</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>31929.93</v>
+        <v>8742.42</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>31929.93</v>
+        <v>8742.42</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>13129.06</v>
+        <v>29325.60000000001</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>18101.9375</v>
+        <v>15793.34833333333</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1200.86</v>
+        <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>5541.190000000001</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>9706.450000000001</v>
+        <v>4756.29</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>6992.66</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>27053.47</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>28817.51</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>9803.720000000001</v>
+        <v>28856.25</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>11444.53</v>
+        <v>28943.41</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>13072.5</v>
+        <v>28974.22</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>13077.34</v>
+        <v>28974.22</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>13077.34</v>
+        <v>28974.22</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>13077.34</v>
+        <v>29178.22</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>13077.34</v>
+        <v>29178.22</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>13129.06</v>
+        <v>29325.60000000001</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>5611.320000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>18045.39916666667</v>
+        <v>15232.275</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>5210.08</v>
+        <v>2497.04</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>5413.47</v>
+        <v>10098.78</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>5413.47</v>
+        <v>10354.23</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>5413.47</v>
+        <v>12034.83</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>5413.47</v>
+        <v>12117.42</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>5593.030000000001</v>
+        <v>13914.95</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>5593.030000000001</v>
+        <v>14101.48</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>5593.030000000001</v>
+        <v>15167.86</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>5611.320000000001</v>
+        <v>15858.31</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>15832.32</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>17623.3575</v>
+        <v>14555.64166666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1182.75</v>
+        <v>604.13</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>7384.45</v>
+        <v>1918.73</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>7637.37</v>
+        <v>3154.87</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>9420.17</v>
+        <v>3297.62</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>9420.17</v>
+        <v>5006.51</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>11257.4</v>
+        <v>5006.51</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>14116.69</v>
+        <v>5369.09</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>15748.69</v>
+        <v>5369.09</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>15768.6</v>
+        <v>5481.59</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>15768.6</v>
+        <v>5481.59</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>15801.18</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>15832.32</v>
+        <v>5483.650000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>11096.29</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>16908.89</v>
+        <v>13979.56583333333</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>176.1</v>
+        <v>824.88</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>298.78</v>
+        <v>2038.22</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1015.34</v>
+        <v>2357.4</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1015.34</v>
+        <v>2541.07</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>4854.66</v>
+        <v>2677.48</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>6484.52</v>
+        <v>2724.199999999999</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>6600.879999999999</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>9271.699999999999</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>10950.86</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>10950.86</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>11096.29</v>
+        <v>2738.899999999999</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>8742.42</v>
+        <v>9388.089999999998</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>15826.14333333333</v>
+        <v>13938.71416666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v/>
+        <v>915.1600000000001</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v/>
+        <v>3782.7</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v/>
+        <v>7400.28</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>5108.440000000001</v>
+        <v>7414.679999999999</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>6872.43</v>
+        <v>7591.629999999999</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>8525.440000000001</v>
+        <v>7694.029999999999</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>8733.82</v>
+        <v>9339.709999999999</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>8742.42</v>
+        <v>9339.709999999999</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>8742.42</v>
+        <v>9354.509999999998</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>8742.42</v>
+        <v>9388.089999999998</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>29112.88</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>15793.34833333333</v>
+        <v>13913.1975</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v/>
+        <v>212.92</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v/>
+        <v>2210.4</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>4756.29</v>
+        <v>2301.19</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>6992.66</v>
+        <v>2937.21</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>27053.47</v>
+        <v>4079.64</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>28817.51</v>
+        <v>4101.49</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>28994.91</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>29082.07</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>29112.88</v>
+        <v>4187.929999999999</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>14101.48</v>
+        <v>5999.92</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>15232.275</v>
+        <v>13879.35666666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v/>
+        <v>676.89</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>2497.04</v>
+        <v>1718.88</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>10098.78</v>
+        <v>2928.17</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>10354.23</v>
+        <v>3266.74</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>12034.83</v>
+        <v>4157.84</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>12117.42</v>
+        <v>5999.92</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>13914.95</v>
+        <v>5999.92</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>14101.48</v>
+        <v>5999.92</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>5369.09</v>
+        <v>3353</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>14555.64166666666</v>
+        <v>13527.49666666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>604.13</v>
+        <v>61.2</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>1918.73</v>
+        <v>1932.35</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>3154.87</v>
+        <v>3088.06</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>3297.62</v>
+        <v>3296.09</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>5006.51</v>
+        <v>3317.56</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>5006.51</v>
+        <v>3353</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>5369.09</v>
+        <v>3353</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>2724.199999999999</v>
+        <v>6732.07</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>13979.56583333333</v>
+        <v>13282.21333333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>824.88</v>
+        <v>29.69</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>2038.22</v>
+        <v>4382.73</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>2357.4</v>
+        <v>4848.9</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>2541.07</v>
+        <v>6678.33</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>2677.48</v>
+        <v>6732.07</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>2724.199999999999</v>
+        <v>6732.07</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>7591.629999999999</v>
+        <v>2883.96</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>13938.71416666667</v>
+        <v>12966.775</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>915.1600000000001</v>
+        <v>360.38</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>3782.7</v>
+        <v>1584.75</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>7400.28</v>
+        <v>2795.97</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>7414.679999999999</v>
+        <v>2883.96</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>7591.629999999999</v>
+        <v>2883.96</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>2937.21</v>
+        <v>5558.54</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>13913.1975</v>
+        <v>12969.30833333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>212.92</v>
+        <v>415.54</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>2210.4</v>
+        <v>3104.45</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>2301.19</v>
+        <v>3518.51</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>2937.21</v>
+        <v>5558.54</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>2928.17</v>
+        <v>6246.04</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>13879.35666666667</v>
+        <v>12603.90916666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>80</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>676.89</v>
+        <v>648.25</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>1718.88</v>
+        <v>2525.78</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>2928.17</v>
+        <v>6246.04</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>1932.35</v>
+        <v>23090.44</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>13527.49666666667</v>
+        <v>12585.07916666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>80</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>61.2</v>
+        <v>263.74</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>1932.35</v>
+        <v>23090.44</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>29.69</v>
+        <v>640.1700000000001</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>13282.21333333333</v>
+        <v>12575.38416666666</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>80</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>29.69</v>
+        <v>640.1700000000001</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
